--- a/テスト用日程データ.xlsx
+++ b/テスト用日程データ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="10365" activeTab="1"/>
+    <workbookView windowWidth="24300" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="データ入力" sheetId="1" r:id="rId1"/>
@@ -2532,9 +2532,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -2640,7 +2640,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2648,14 +2663,6 @@
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2676,12 +2683,74 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2696,40 +2765,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2743,46 +2782,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2839,13 +2839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2863,19 +2863,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2893,19 +2905,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2917,7 +2941,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2929,13 +2971,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2947,67 +2989,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3216,11 +3216,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3240,28 +3246,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3298,18 +3305,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3318,148 +3318,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4063,7 +4063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6499,18 +6499,18 @@
       <formula1>"　,教授,准教授,客員教授"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="52" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -15096,18 +15096,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:CD243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B132" sqref="B3:B132"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -36047,14 +36047,14 @@
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.15748031496063" bottom="0" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.156944444444444" bottom="0" header="0.314583333333333" footer="0.314583333333333"/>
   <pageSetup paperSize="8" scale="70" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:BZ48"/>
   <sheetViews>
@@ -40421,7 +40421,7 @@
       <formula>AND(COLUMN()-4&lt;$B$48*$D$48,ROW()-3&lt;$A$48)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait"/>
   <headerFooter/>
   <colBreaks count="2" manualBreakCount="2">

--- a/テスト用日程データ.xlsx
+++ b/テスト用日程データ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="13065" activeTab="2"/>
+    <workbookView windowWidth="24300" windowHeight="13065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="データ入力" sheetId="1" r:id="rId1"/>
@@ -2644,8 +2644,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2659,45 +2719,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2712,44 +2766,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -2759,22 +2775,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2845,7 +2845,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2857,7 +2881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2869,31 +2893,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2911,19 +2983,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2935,79 +3007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3231,6 +3231,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3249,26 +3267,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3283,21 +3298,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3321,7 +3321,7 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3330,13 +3330,13 @@
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -3345,121 +3345,121 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15102,7 +15102,7 @@
   </sheetPr>
   <dimension ref="A1:CD243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -36047,7 +36047,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.156944444444444" bottom="0" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.15625" bottom="0" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="8" scale="70" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
@@ -36058,12 +36058,12 @@
   <sheetPr/>
   <dimension ref="A1:BZ48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -36697,11 +36697,21 @@
         <v>17</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>819</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -36781,11 +36791,21 @@
         <v>22</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>819</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -37227,11 +37247,21 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
+      <c r="AD9" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>819</v>
+      </c>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
@@ -37311,11 +37341,21 @@
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
+      <c r="AD10" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="AG10" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>819</v>
+      </c>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
@@ -40416,8 +40456,43 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:BZ47">
-    <cfRule type="expression" dxfId="1" priority="89">
+  <conditionalFormatting sqref="E3:H3">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>AND(COLUMN()-4&lt;$B$48*$D$48,ROW()-3&lt;$A$48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(COLUMN()-4&lt;$B$48*$D$48,ROW()-3&lt;$A$48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:H4">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND(COLUMN()-4&lt;$B$48*$D$48,ROW()-3&lt;$A$48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(COLUMN()-4&lt;$B$48*$D$48,ROW()-3&lt;$A$48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AH9">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(COLUMN()-4&lt;$B$48*$D$48,ROW()-3&lt;$A$48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD10">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(COLUMN()-4&lt;$B$48*$D$48,ROW()-3&lt;$A$48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE10:AH10">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(COLUMN()-4&lt;$B$48*$D$48,ROW()-3&lt;$A$48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D3 I3:BZ4 C4 C5:BZ8 C9:AC10 AI9:BZ10 C11:BZ47">
+    <cfRule type="expression" dxfId="1" priority="96">
       <formula>AND(COLUMN()-4&lt;$B$48*$D$48,ROW()-3&lt;$A$48)</formula>
     </cfRule>
   </conditionalFormatting>
